--- a/ebiz-xjf-pom/setting/java讲义-2.xlsx
+++ b/ebiz-xjf-pom/setting/java讲义-2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>第七章   JAVA基础类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,7 +331,183 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对于Set,List,Queue和Map四种集合，最常用的实现类在图8.1、图8.2中以灰色背景色覆盖</t>
+    <t>对于Set,List,Queue和Map四种集合，最常用的实现类在图8.1、图8.2中以灰色背景色覆盖，分别是HashSet,TreeSet,ArrayList,ArrayDeque,LinkedList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和HashMap,TreeMap等实现类。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.2 Collection和Iterator接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collection接口是List、Set和Queue接口的父接口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayList和HashSet实现类不同，但是他们当成Collection来使用时，使用add，remove，clear等方法来操作集合元素时没有区别。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.3 Set集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set集合不允许包含相同的元素，如果试图把两个相同的元素加入同一个Set集合中，则添加操作失败。Add()返回false，且新元素不会被加入。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.3.1 HashSet类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HashSet是Set接口的典型实现，大多数时候使用Set集合时就是使用这个实现类。HashSet按Hash算法来存储集合中的元素。因为有很好的存取和查找性能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特点：1.不能保证元素的排列顺序，顺序可能与添加顺序不同，顺序可能发生变化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.HashSet不是同步的。如果多个线程同时访问一个HashSet，假设有两个或者两个以上线程同时修改了HashSet集合时，则必须通过代码来保证其同步。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.集合元素可以是null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HashSet集合判断两个元素相等的标准是通过equals()方法比较的，并且两个对象的hashCode()方法返回值也相等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存入一个元素，调用hashCode()方法得到该对象的hashCode值，然后根据这个决定该对象的存储位置，如果equals()返回true，但是hashCode()返回值不同，依旧可以成功。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HashSet中每个能存储元素的'槽位'同程被称为桶，如果多个元素的hashCode值相同，但他们通过equals()方法比较返回false，就需要在一个桶内放多个元素，性能会下降。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.3.2 LinkedHashSet类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HashSet还有一个子类LinkedHashSet,也是根据hashCode值来决定元素存储位置，但是同时使用链表维护元素次序。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能低于HashSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.3.3 TreeSet类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是SortedSet接口的实现类，可以确保集合元素处于排序状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreeSet采用红黑树的数据结构来存储集合元素。支持两种排序方法：自然排序和定制排序。默认自然排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自然排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用集合元素的compareTo(Object obj)方法来比较元素之间的大小关系，然后将集合元素按升序排列，这种方式就是自然排序。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果试图把一个对象添加到TreeSet时，则该对象的类必须实现Comparable接口，否则程序将会抛出异常。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果添加到TreeSet的对象是不同类的对象，也会引发ClassCastException异常。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望TreeSet能正常运作，TreeSet只能添加同一种类型的对象。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当把一个对象加入TreeSet集合中时，调用该方法的compareTo方法与容器中的其他对象比较大小，然后根据红黑树结构找到它的存储位置。如果两个对象比较相等，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新对象讲无法添加到TreeSet集合中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.定制排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过Comparator接口的帮厨，接口包含一个compare的方法，用于比较o1和o2，如果返回正整数，表明o1大于o2；如果方法返回0，表示相等，如果返回负数，表明o1小于o2。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.3.5 各Set实现类的新能分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HashSet的新能总是比TreeSet好，因为TreeSet需要额外的红黑树算法来维护集合元素的次序。只有当需要保持排序的Set时，才应该使用TreeSet，否则应该使用HashSet。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HashSet,TreeSet和EnumSet都是线程不安全的。如果有多个线程同时访问一个Set集合，并且有超过一个线程修改了该Set集合，则必须手动保证该Set集合的同步性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通常可用Collections工具类的synchronizedSortedSet方法来包装该Set集合，此操作最好在创建时进行，以防止对Set集合以外的非同步访问。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.4 List集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List代表一个元素有序，可重复的集合，集合中每个元素都有其对应的顺序索引。List集合允许使用重复元素，可以通过索引来访问指定位置的集合元素。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.4.2 ArrayList和Vector实现类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.4.3 固定长度的List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrays.asList方法，提供固定长度的List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两者完全一样。Vector是个古老的方法，有很多缺点，尽量少用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayList是线程不安全的，如果有超过一个线程修改了集合，则程序必须手动保证该集合的同步性；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector是线程安全的，所有比ArrayList性能要低。Collections工具类，可以将ArrayList变成线程安全。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.5 Queue集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queue用于模拟队列这种数据结构，通常是指先进先出的容器。队列的头部保存在队列中存放时间最长的元素，队列的尾部保存在队列中存放时间最短的元素。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.5.1 PriorityQueue实现类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -665,6 +841,120 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>92481</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1457326" y="13239751"/>
+          <a:ext cx="4229100" cy="911630"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>199339</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>47598</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057275" y="16802100"/>
+          <a:ext cx="5485714" cy="219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>36171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>151477</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>18823</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="19238571"/>
+          <a:ext cx="5495002" cy="1354252"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -933,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P128"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="O63" sqref="O63"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="U58" sqref="U58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1322,10 +1612,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="P67" sqref="P67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1358,29 +1648,234 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C49" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B51" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C52" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C53" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B55" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C56" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C58" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D59" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D60" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="E61" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="E62" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D63" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D64" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D66" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C68" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D69" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D70" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C72" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D73" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D74" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D76" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E77" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E84" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E86" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E87" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E88" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E89" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D91" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E92" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C95" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D96" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D97" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D98" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B101" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C102" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C104" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D105" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D106" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D107" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C108" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D109" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B111" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C112" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C122" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ebiz-xjf-pom/setting/java讲义-2.xlsx
+++ b/ebiz-xjf-pom/setting/java讲义-2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>第七章   JAVA基础类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -459,10 +459,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HashSet,TreeSet和EnumSet都是线程不安全的。如果有多个线程同时访问一个Set集合，并且有超过一个线程修改了该Set集合，则必须手动保证该Set集合的同步性。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通常可用Collections工具类的synchronizedSortedSet方法来包装该Set集合，此操作最好在创建时进行，以防止对Set集合以外的非同步访问。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -491,14 +487,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ArrayList是线程不安全的，如果有超过一个线程修改了集合，则程序必须手动保证该集合的同步性；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vector是线程安全的，所有比ArrayList性能要低。Collections工具类，可以将ArrayList变成线程安全。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8.5 Queue集合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -508,6 +496,192 @@
   </si>
   <si>
     <t>8.5.1 PriorityQueue实现类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较标准的队列实现类。不是绝对标准的，是因为元素顺序不是按照加入时间，而是按照元素大小。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不匀速插入null元素，还需要对队列元素进行排序，有两种排序。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然排序：采用自然排序，集合中的元素必须实现了Comparable接口，而且应该是同一个类的多个实例。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制排序：传入一个Comparator对象，该对象负责对队列中的所有元素进行排序。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.5.2 Deque接口和ArrayDeque实现类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HashSet,TreeSet和EnumSet都是线程不安全的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。如果有多个线程同时访问一个Set集合，并且有超过一个线程修改了该Set集合，则必须手动保证该Set集合的同步性。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ArrayList是线程不安全的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，如果有超过一个线程修改了集合，则程序必须手动保证该集合的同步性；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vector是线程安全的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，所有比ArrayList性能要低。Collections工具类，可以将ArrayList变成线程安全。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deque接口是Queue接口的子接口，它代表一个双端队列，Deque接口里定义了一些双端队列的方法，循序从两端来操作队列的元素。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以当成双端队列使用，而且可以被当成栈来使用。因为该类包含了pop和push两个方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.5.3 LinkedList实现类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"answerA":"法国胜","answerB":"罗马尼亚胜","answerC":"平局","question":"法国VS罗马尼亚","rn":"1"},{"answerA":"阿尔巴尼亚胜","answerB":"瑞士胜","answerC":"平局","question":"阿尔巴尼亚VS瑞士","rn":"2"},{"answerA":"阿尔巴尼亚胜","answerB":"瑞士胜","answerC":"平局","question":"阿尔巴尼亚VS瑞士","rn":"3"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinkedList是List接口的实现类。可以根据随机索引来随机访问集合中的元素，此外还实现了Deque接口，可以被当成双端队列使用。也可以被当成栈使用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>push pop 栈，先进后出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当作为栈使用时，性能比Stack好；当作为队列使用时，性能比LinkedList好。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ArrayBlockingQueue </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>队列</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add peek poll 队列，先进先出，如果push和add混用，队列会把push的放在前面。不是线程安全。Push是放在顶部的概念，而add和offer是放在尾部的意思。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinkedList与ArrayList,ArrayDeque的实现机制完全不同，ArrayList和ArrayDeque内部以数组的形式来保存集合中的元素，因此随机来访问集合元素时有较好的性能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而LinkedList内部以链表的形式来保存集合中的元素，因此随机访问集合元素时性能较差，但在插入，删除元素时性能较为出色。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然Vector也是以数组的形式来存储，但是因为实现了线程同步功能（且实现机制也不好），所以各方面性能都比较差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.5.4 各种线性表的性能分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HashTable和HashMap有两点区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.hashtable是线程安全，hashMap不是。性能hashmap》hashtable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2。Hashtable不允许使用null作为key和value，Hashmap可以。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与HashSet集合不能保证元素的顺序一样，HashMap和Hashtable也不能保证其中Key-value对的顺序，类似于HashSet，HashMap、Hashtable判断两个Key相等的标准也是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个Key通过equals()方法比较返回true，两个key的hashcode值也相等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HashMap、Hashtable判断两个value相等的标准更简单，只要两个对象通过equals方法比较返回true即可。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +689,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,6 +718,47 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -576,7 +791,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -587,6 +802,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -955,6 +1179,272 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>170354</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>217977</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>66562</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="24573404"/>
+          <a:ext cx="7304577" cy="753458"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>147557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>117529</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="25407857"/>
+          <a:ext cx="6972300" cy="827222"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>166738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>294271</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>85606</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1152525" y="26284288"/>
+          <a:ext cx="6542671" cy="776118"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>131617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304949</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1181099" y="27106417"/>
+          <a:ext cx="6524775" cy="1039958"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>215923</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>170396</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>46977</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="568348" y="28203525"/>
+          <a:ext cx="7002973" cy="4304652"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>140129</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="32480251"/>
+          <a:ext cx="7077075" cy="635428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>33049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561976" y="33166051"/>
+          <a:ext cx="7677150" cy="1214148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1223,7 +1713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P128"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A142" workbookViewId="0">
       <selection activeCell="U58" sqref="U58"/>
     </sheetView>
   </sheetViews>
@@ -1612,10 +2102,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="P67" sqref="P67"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="C210" sqref="C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1643,7 +2133,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D44" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C48" s="1" t="s">
         <v>78</v>
       </c>
@@ -1813,68 +2308,186 @@
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D97" s="1" t="s">
-        <v>110</v>
+      <c r="D97" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D98" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C102" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C104" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D105" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D106" s="1" t="s">
-        <v>118</v>
+      <c r="D106" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D107" s="1" t="s">
-        <v>119</v>
+      <c r="D107" s="4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C108" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D109" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B111" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C112" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="122" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C122" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D123" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D124" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C122" s="1" t="s">
+    <row r="125" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D125" s="1" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="126" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D126" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="128" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C128" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="129" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D129" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D130" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D131" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D132" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="133" spans="3:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="D133" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="134" spans="3:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="D134" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="135" spans="3:4" ht="15" x14ac:dyDescent="0.15">
+      <c r="D135" s="5"/>
+    </row>
+    <row r="136" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C136" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="137" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D137" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="139" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D139" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D140" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D141" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C143" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C203" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C204" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C205" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C207" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C208" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C210" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/ebiz-xjf-pom/setting/java讲义-2.xlsx
+++ b/ebiz-xjf-pom/setting/java讲义-2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
   <si>
     <t>第七章   JAVA基础类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -669,10 +669,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2。Hashtable不允许使用null作为key和value，Hashmap可以。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>与HashSet集合不能保证元素的顺序一样，HashMap和Hashtable也不能保证其中Key-value对的顺序，类似于HashSet，HashMap、Hashtable判断两个Key相等的标准也是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -682,6 +678,70 @@
   </si>
   <si>
     <t>HashMap、Hashtable判断两个value相等的标准更简单，只要两个对象通过equals方法比较返回true即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.Hashtable不允许使用null作为key和value，Hashmap可以。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.6.3 LinkedHashMap实现类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.6.4 使用Properties读写属性文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Properties类是Hashtable类的子类，处理属性文件时特别方便。可以把Map对象中的Key-value对写入属性文件中，也可以把属性文件中的“属性名=属性值”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夹在到Map对象中。Properties里的key、value都是字符串类型。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.6.5 SortedMap接口和TreeMap实现类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.6.6 WeakHashMap实现类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.6.7 IdentityHashMap实现类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当且仅当两个Key严格相等key1==key2时，才认为两个key相等；对于普通的HashMap而言，只要Key1和Key2通过equals()方法比较返回true，且当它们的hashcode值相等即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IdentityHashMap提供了与HashMap基本相似的方法，也允许使用null作为key和value。与HashMap相似：IdentityHashMap也不保证key-value对之间的顺序，更不能保证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它们的顺序随时间的推移保持不变。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.6.9 各Map实现类的性能分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.7 HashSet和HashMap的性能选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.8 操作集合的工具类：Collections</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java提供了一个操作Set、List和Map等集合的工具类：Collections，提供了大量方法对集合元素进行排序，查询和修改等操作。还提供将集合对象设置为不可变、对集合对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现同步控制等方法。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1445,6 +1505,462 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>27514</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>56886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057275" y="36404550"/>
+          <a:ext cx="8485714" cy="2114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>322796</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>161862</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057275" y="39490650"/>
+          <a:ext cx="8428571" cy="504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>341844</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>66495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057275" y="40005000"/>
+          <a:ext cx="8447619" cy="1438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>341839</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>47394</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="41462325"/>
+          <a:ext cx="8485714" cy="1847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>27514</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>37838</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057275" y="43605450"/>
+          <a:ext cx="8485714" cy="2095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>351368</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>113879</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057275" y="47034450"/>
+          <a:ext cx="8457143" cy="3371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>27514</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>94895</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="50634900"/>
+          <a:ext cx="8485714" cy="2838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>94184</xdr:colOff>
+      <xdr:row>330</xdr:row>
+      <xdr:rowOff>171034</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="53482875"/>
+          <a:ext cx="8523809" cy="3323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>336</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>17994</xdr:colOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>18670</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="57731025"/>
+          <a:ext cx="8447619" cy="3038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>355</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>265698</xdr:colOff>
+      <xdr:row>382</xdr:row>
+      <xdr:rowOff>104183</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="60921900"/>
+          <a:ext cx="8019048" cy="4733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>383</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>65609</xdr:colOff>
+      <xdr:row>411</xdr:row>
+      <xdr:rowOff>132733</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="65722500"/>
+          <a:ext cx="8523809" cy="4933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>413</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>322840</xdr:colOff>
+      <xdr:row>425</xdr:row>
+      <xdr:rowOff>123552</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="70866000"/>
+          <a:ext cx="8076190" cy="2180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1713,7 +2229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P128"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U58" sqref="U58"/>
     </sheetView>
   </sheetViews>
@@ -2102,10 +2618,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E210"/>
+  <dimension ref="A1:E336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="C210" sqref="C210"/>
+    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
+      <selection activeCell="C414" sqref="C414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2472,22 +2988,97 @@
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C205" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C207" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C208" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C210" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C212" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="226" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C226" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="227" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D227" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="228" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D228" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="230" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C230" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C254" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="269" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C269" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="270" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D270" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="271" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D271" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="272" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D272" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C274" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B295" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B334" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="335" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C335" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="336" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C336" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
